--- a/Business Understanding/Netzplan.xlsx
+++ b/Business Understanding/Netzplan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bserlangende-my.sharepoint.com/personal/christos_tsinaridis_bs-erlangen_de/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christostsinaridis/Desktop/VSCode Workspaces/ITP-Projekt-Ziffer-NN/Business Understanding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="8_{55C5FF02-B99B-154C-950C-01F47CB0056C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C653AF7-0B89-764E-BE5E-6DB3E798EE02}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{203F051E-2AE1-7944-8A49-853ACF7F29EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Vorgangsbezeichnung</t>
   </si>
@@ -79,12 +79,33 @@
   <si>
     <t>Festlegung Modell</t>
   </si>
+  <si>
+    <t>Datensatz erstellen</t>
+  </si>
+  <si>
+    <t>Modell mit Datensatz trainieren</t>
+  </si>
+  <si>
+    <t>Einfache GUI erstellen</t>
+  </si>
+  <si>
+    <t>Modell evaluieren</t>
+  </si>
+  <si>
+    <t>GUI testen</t>
+  </si>
+  <si>
+    <t>Projektpräsentation erstellen</t>
+  </si>
+  <si>
+    <t>Projekt vorstellen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,6 +129,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -166,6 +194,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -182,10 +247,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -723,7 +804,566 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>129567</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>199595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>703116</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>22068</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Gewinkelte Verbindung 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{352CFF31-9EC4-E84F-A894-41C451EA9965}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2649247" y="2089355"/>
+          <a:ext cx="1396509" cy="1041673"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>156879</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>662148</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22067</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Gewinkelte Verbindung 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E191BAA-8090-1446-8474-C515D0E98432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2676559" y="3334228"/>
+          <a:ext cx="1328229" cy="1015999"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>675149</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>106953</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Gewinkelte Verbindung 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328D2DBE-BB9E-8F4C-B60C-29459426D254}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="29657040" y="1971040"/>
+          <a:ext cx="1396509" cy="1041673"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>128912</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>634181</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106952</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Gewinkelte Verbindung 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC072D0-A0DD-8941-9253-5B5AA35B4626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29684352" y="3215913"/>
+          <a:ext cx="1328229" cy="1015999"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>416560</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>6773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>284480</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Gerade Verbindung mit Pfeil 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAFBA363-FA38-6149-B474-25260A76CC3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34086800" y="2099733"/>
+          <a:ext cx="1798320" cy="3387"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>568960</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Gerade Verbindung mit Pfeil 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D93CB99-FB68-7C44-BD5C-A153CF45D88D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="33914080" y="4328160"/>
+          <a:ext cx="7741920" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>199813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Gerade Verbindung mit Pfeil 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE1564D-439B-AE46-938E-05ABE8A39EE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39624000" y="2089573"/>
+          <a:ext cx="1859280" cy="3387"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>497840</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>316709</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>146719</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Gewinkelte Verbindung 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F4987E-40CE-1745-B1DF-C14F93A7799B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="44876720" y="2103120"/>
+          <a:ext cx="1464789" cy="949359"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>552464</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>92096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>289397</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>199703</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Gewinkelte Verbindung 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1310AC8B-344A-C840-8C7F-BBD288A81D34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="44931344" y="3201056"/>
+          <a:ext cx="1382853" cy="1123607"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Gerade Verbindung mit Pfeil 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{431BBF14-813D-B249-B2A6-65750569D4DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="49916080" y="3088640"/>
+          <a:ext cx="1859280" cy="3387"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1048,10 +1688,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:AG21"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A5:BJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="93" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="AY27" sqref="AY27:BL27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1064,18 +1707,20 @@
     <col min="28" max="28" width="17.1640625" customWidth="1"/>
     <col min="33" max="33" width="17.6640625" customWidth="1"/>
     <col min="39" max="39" width="14.5" customWidth="1"/>
+    <col min="44" max="44" width="18" customWidth="1"/>
+    <col min="56" max="56" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:62" ht="34" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3"/>
+      <c r="C5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:62" ht="34" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1086,7 +1731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="F7">
         <f>C13</f>
         <v>1</v>
@@ -1111,31 +1756,78 @@
         <f>P7+P9</f>
         <v>6.5</v>
       </c>
+      <c r="AJ7">
+        <f>AG12</f>
+        <v>12.5</v>
+      </c>
+      <c r="AL7">
+        <f>AJ7+AJ9</f>
+        <v>15.5</v>
+      </c>
+      <c r="AP7" s="2">
+        <f>AL7</f>
+        <v>15.5</v>
+      </c>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2">
+        <f>AP7+AP9</f>
+        <v>17.5</v>
+      </c>
+      <c r="AV7" s="2">
+        <f>AR7</f>
+        <v>17.5</v>
+      </c>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2">
+        <f>AV7+AV9</f>
+        <v>19.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="F8" s="1">
         <v>2</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="9"/>
       <c r="K8" s="1">
         <v>3</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="9"/>
       <c r="P8" s="1">
         <v>4</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="3"/>
+      <c r="R8" s="9"/>
+      <c r="AJ8" s="1">
+        <v>10</v>
+      </c>
+      <c r="AK8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL8" s="9"/>
+      <c r="AP8" s="3">
+        <v>11</v>
+      </c>
+      <c r="AQ8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR8" s="7"/>
+      <c r="AV8" s="3">
+        <v>12</v>
+      </c>
+      <c r="AW8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX8" s="7"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="F9" s="1">
         <v>2</v>
       </c>
@@ -1169,8 +1861,39 @@
         <f>P7-M7</f>
         <v>0</v>
       </c>
+      <c r="AJ9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK9" s="1">
+        <f>AJ10-AJ7</f>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1">
+        <f>AJ7-AG12</f>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="5">
+        <f>AP7-AL7</f>
+        <v>0</v>
+      </c>
+      <c r="AV9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AW9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="5">
+        <f>AV7-AR7</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="F10">
         <f>H10-F9</f>
         <v>1</v>
@@ -1195,8 +1918,34 @@
         <f>U15</f>
         <v>6.5</v>
       </c>
+      <c r="AJ10">
+        <f>AL10-AJ9</f>
+        <v>12.5</v>
+      </c>
+      <c r="AL10">
+        <f>AL7</f>
+        <v>15.5</v>
+      </c>
+      <c r="AP10" s="2">
+        <f>AR10-AP9</f>
+        <v>15.5</v>
+      </c>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2">
+        <f>AR7</f>
+        <v>17.5</v>
+      </c>
+      <c r="AV10" s="2">
+        <f>AX10-AV9</f>
+        <v>17.5</v>
+      </c>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2">
+        <f>AX7</f>
+        <v>19.5</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="U12">
         <f>R7</f>
         <v>6.5</v>
@@ -1221,8 +1970,26 @@
         <f>AE12+AE14</f>
         <v>12.5</v>
       </c>
+      <c r="BB12" s="2">
+        <f>AX7</f>
+        <v>19.5</v>
+      </c>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2">
+        <f>BB12+BB14</f>
+        <v>21.5</v>
+      </c>
+      <c r="BH12" s="2">
+        <f>BD12</f>
+        <v>21.5</v>
+      </c>
+      <c r="BI12" s="2"/>
+      <c r="BJ12" s="2">
+        <f>BH12+BH14</f>
+        <v>22.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1233,33 +2000,47 @@
       <c r="U13" s="1">
         <v>7</v>
       </c>
-      <c r="V13" s="2" t="s">
+      <c r="V13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="W13" s="3"/>
+      <c r="W13" s="9"/>
       <c r="Z13" s="1">
         <v>8</v>
       </c>
-      <c r="AA13" s="2" t="s">
+      <c r="AA13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AB13" s="3"/>
+      <c r="AB13" s="9"/>
       <c r="AE13" s="1">
         <v>9</v>
       </c>
-      <c r="AF13" s="2" t="s">
+      <c r="AF13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG13" s="3"/>
+      <c r="AG13" s="9"/>
+      <c r="BB13" s="3">
+        <v>15</v>
+      </c>
+      <c r="BC13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD13" s="7"/>
+      <c r="BH13" s="3">
+        <v>16</v>
+      </c>
+      <c r="BI13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="BJ13" s="7"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="9"/>
       <c r="U14" s="1">
         <v>2</v>
       </c>
@@ -1293,8 +2074,28 @@
         <f>AE12-AB12</f>
         <v>0</v>
       </c>
+      <c r="BB14" s="4">
+        <v>2</v>
+      </c>
+      <c r="BC14" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="5">
+        <f>BB12-AX7</f>
+        <v>0</v>
+      </c>
+      <c r="BH14" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI14" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="5">
+        <f>BH12-BD12</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1330,8 +2131,26 @@
         <f>AG12</f>
         <v>12.5</v>
       </c>
+      <c r="BB15" s="2">
+        <f>BD15-BB14</f>
+        <v>19.5</v>
+      </c>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2">
+        <f>BD12</f>
+        <v>21.5</v>
+      </c>
+      <c r="BH15" s="2">
+        <f>BJ15-BH14</f>
+        <v>21.5</v>
+      </c>
+      <c r="BI15" s="2"/>
+      <c r="BJ15" s="2">
+        <f>BJ12</f>
+        <v>22.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16">
         <f>C16-A15</f>
         <v>0</v>
@@ -1341,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:50" x14ac:dyDescent="0.2">
       <c r="F18">
         <f>C13</f>
         <v>1</v>
@@ -1358,24 +2177,55 @@
         <f>P18+P20</f>
         <v>3.5</v>
       </c>
+      <c r="AJ18">
+        <f>AG12</f>
+        <v>12.5</v>
+      </c>
+      <c r="AL18">
+        <f>AJ18+AJ20</f>
+        <v>16.5</v>
+      </c>
+      <c r="AV18" s="2">
+        <f>AL18</f>
+        <v>16.5</v>
+      </c>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2">
+        <f>AV18+AV20</f>
+        <v>18.5</v>
+      </c>
     </row>
-    <row r="19" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:50" x14ac:dyDescent="0.2">
       <c r="F19" s="1">
         <v>5</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="9"/>
       <c r="P19" s="1">
         <v>6</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="Q19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="R19" s="3"/>
+      <c r="R19" s="9"/>
+      <c r="AJ19" s="1">
+        <v>13</v>
+      </c>
+      <c r="AK19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL19" s="9"/>
+      <c r="AV19" s="3">
+        <v>14</v>
+      </c>
+      <c r="AW19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX19" s="7"/>
     </row>
-    <row r="20" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:50" x14ac:dyDescent="0.2">
       <c r="F20" s="1">
         <v>1.5</v>
       </c>
@@ -1398,8 +2248,30 @@
         <f>U12-R18</f>
         <v>3</v>
       </c>
+      <c r="AJ20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK20" s="1">
+        <f>AJ21-AJ18</f>
+        <v>1</v>
+      </c>
+      <c r="AL20" s="1">
+        <f>AJ18-AG12</f>
+        <v>0</v>
+      </c>
+      <c r="AV20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AW20" s="5">
+        <f>AV21-AV18</f>
+        <v>1</v>
+      </c>
+      <c r="AX20" s="5">
+        <f>AV18-AL18</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:50" x14ac:dyDescent="0.2">
       <c r="F21">
         <f>H21-F20</f>
         <v>4</v>
@@ -1416,22 +2288,47 @@
         <f>U15</f>
         <v>6.5</v>
       </c>
+      <c r="AJ21">
+        <f>AL21-AJ20</f>
+        <v>13.5</v>
+      </c>
+      <c r="AL21">
+        <f>AV21</f>
+        <v>17.5</v>
+      </c>
+      <c r="AV21" s="2">
+        <f>AX21-AV20</f>
+        <v>17.5</v>
+      </c>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2">
+        <f>BB15</f>
+        <v>19.5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="17">
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AW19:AX19"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="V13:W13"/>
     <mergeCell ref="AA13:AB13"/>
     <mergeCell ref="AF13:AG13"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="BI13:BJ13"/>
+    <mergeCell ref="AW8:AX8"/>
+    <mergeCell ref="BC13:BD13"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AQ8:AR8"/>
   </mergeCells>
+  <printOptions verticalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
